--- a/CPR/final Project/Final-Project-Plan.xlsx
+++ b/CPR/final Project/Final-Project-Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Documents\Seneca\SDDS\cpr101\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fece55f6e26fc23a/Documents/GitHub/Seneca-Assignments/CPR/final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40108199-1571-4FD1-AE3A-D7CA79A9ACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{40108199-1571-4FD1-AE3A-D7CA79A9ACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ED83C9D-B0DD-4C2F-AC9E-08E6BB0E453B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{D8E31B3C-F149-45D6-99B7-2CDC65D256FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8E31B3C-F149-45D6-99B7-2CDC65D256FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Working route" sheetId="1" r:id="rId1"/>
@@ -753,23 +753,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Blackboard Group No
-?? Class </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XYY</t>
-    </r>
-  </si>
-  <si>
     <t>Version 1</t>
   </si>
   <si>
@@ -1160,6 +1143,10 @@
     <t>Review each other's PM notes on process Teams. Agree on how project will be done.
 Decide which module to do
 &amp; choose Team Leader</t>
+  </si>
+  <si>
+    <t>Blackboard Group No
+06 Class NFF</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1586,6 +1573,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1603,21 +1593,38 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1657,14 +1664,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1719,42 +1726,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
@@ -1769,50 +1740,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1863,78 +1800,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2038,244 +1903,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2295,9 +1922,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2335,7 +1962,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2441,7 +2068,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2583,7 +2210,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2597,7 +2224,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,53 +2259,53 @@
   <sheetData>
     <row r="1" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="45" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>5</v>
@@ -2687,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="40" t="str">
         <f>B2</f>
@@ -2713,7 +2340,7 @@
 date &amp; time</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="40" t="str">
         <f t="shared" ref="L2:T2" si="0">G2</f>
@@ -2739,7 +2366,7 @@
 date &amp; time</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="40" t="str">
         <f t="shared" si="0"/>
@@ -2765,13 +2392,13 @@
 date &amp; time</v>
       </c>
       <c r="U2" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" s="40" t="s">
         <v>5</v>
@@ -2780,16 +2407,16 @@
         <v>6</v>
       </c>
       <c r="Z2" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>2</v>
@@ -2806,7 +2433,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4">
         <v>9</v>
@@ -2817,7 +2444,7 @@
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
       <c r="N3" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" s="4">
         <v>14</v>
@@ -2828,7 +2455,7 @@
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T3" s="4">
         <f>IF($E$3+21&lt;=$W$3,21,ROUND($W$3 - $E$3,0))</f>
@@ -2838,24 +2465,24 @@
         <v>3</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W3" s="37">
         <v>44909.999988425923</v>
       </c>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="50"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="34"/>
     </row>
     <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="21" t="str">
@@ -2868,14 +2495,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="str">
@@ -2914,13 +2541,13 @@
     </row>
     <row r="5" spans="1:26" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="12">
         <v>1.5</v>
@@ -2935,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="24" t="str">
@@ -2951,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="24" t="str">
@@ -2968,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S5" s="13"/>
       <c r="T5" s="24" t="str">
@@ -2985,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="V5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="X5" s="13"/>
       <c r="Y5" s="24" t="str">
@@ -3005,10 +2632,10 @@
     <row r="6" spans="1:26" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="21" t="str">
@@ -3019,10 +2646,10 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="24" t="str">
@@ -3035,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="24" t="str">
@@ -3051,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="24" t="str">
@@ -3074,10 +2701,10 @@
     </row>
     <row r="7" spans="1:26" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="21" t="str">
@@ -3088,7 +2715,7 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="24" t="str">
@@ -3099,7 +2726,7 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -3111,7 +2738,7 @@
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -3136,10 +2763,10 @@
     </row>
     <row r="8" spans="1:26" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="21" t="str">
@@ -3150,7 +2777,7 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="24" t="str">
@@ -3161,7 +2788,7 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
@@ -3173,7 +2800,7 @@
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -3198,10 +2825,10 @@
     </row>
     <row r="9" spans="1:26" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="21" t="str">
@@ -3212,7 +2839,7 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="24" t="str">
@@ -3223,7 +2850,7 @@
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
@@ -3235,7 +2862,7 @@
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -3260,10 +2887,10 @@
     </row>
     <row r="10" spans="1:26" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3275,7 +2902,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -3287,7 +2914,7 @@
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -3299,7 +2926,7 @@
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -3324,19 +2951,19 @@
     </row>
     <row r="11" spans="1:26" s="13" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="14" customFormat="1" ht="240" x14ac:dyDescent="0.25">
@@ -3344,10 +2971,10 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -3357,12 +2984,12 @@
       <c r="P12" s="19"/>
       <c r="S12" s="19"/>
       <c r="T12" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z12" s="19"/>
     </row>
@@ -3375,276 +3002,150 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="L1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="Z11:Z1048576 P11:P1048576 U11:U1048576 K11:K1048576 F11:F1048576 F1:F2 P7 U7 K7 F7 Z7 K4 K1:K2 P2 U1:U2">
-    <cfRule type="containsText" dxfId="63" priority="210" operator="containsText" text="in progress">
+  <conditionalFormatting sqref="B12:U1048576">
+    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",B12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:V1">
+    <cfRule type="containsText" dxfId="30" priority="116" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F2 F7 K7 P7 U7 Z7 F11:F1048576 K11:K1048576 P11:P1048576 U11:U1048576 Z11:Z1048576 K1:K2 U1:U2">
+    <cfRule type="containsText" dxfId="28" priority="210" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="211" operator="containsText" text="not yet started">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F2 K1:K2 U1:U2 F7 K7 P7 U7 Z7 F11:F1048576 K11:K1048576 P11:P1048576 U11:U1048576 Z11:Z1048576">
+    <cfRule type="containsText" dxfId="27" priority="211" operator="containsText" text="not yet started">
       <formula>NOT(ISERROR(SEARCH("not yet started",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:F1 C2:F2 C3:D4 U7:X10 Z7:Z10 B13:U1048576 B12:S12 U12 K11:N11 P11:Z11 R7:S10 P7:P10 O10:O11 M7:N10 K7:K10 J10:J11 H7:I10 F7:F10 B7:D10 B11:I11">
-    <cfRule type="containsText" dxfId="61" priority="208" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",B1)))</formula>
+  <conditionalFormatting sqref="F7:F10 K7:K10 P7:P10 U7:X10 Z7:Z10 C2:F2 C3:D4 B7:D10 H7:I10 M7:N10 R7:S10 J10:J11 O10:O11 B11:I11 K11:N11 P11:Z11">
+    <cfRule type="containsText" dxfId="26" priority="208" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:K1 H4:K4 H3:J3">
-    <cfRule type="containsText" dxfId="60" priority="178" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",G1)))</formula>
+  <conditionalFormatting sqref="F8:F10 K8:K10 P8:P10 U8:U10 Z8:Z10">
+    <cfRule type="containsText" dxfId="25" priority="153" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",F8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="154" operator="containsText" text="not yet started">
+      <formula>NOT(ISERROR(SEARCH("not yet started",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:U1 R3">
-    <cfRule type="containsText" dxfId="59" priority="175" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",Q1)))</formula>
+  <conditionalFormatting sqref="H2:K4">
+    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V19:Z1048576 V12:V18 X13:Z18 W4 X12 Z12">
-    <cfRule type="containsText" dxfId="58" priority="157" operator="containsText" text="complete">
+  <conditionalFormatting sqref="K2">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K4">
+    <cfRule type="containsText" dxfId="21" priority="44" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",K3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="45" operator="containsText" text="not yet started">
+      <formula>NOT(ISERROR(SEARCH("not yet started",K3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:P2">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",M2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:P4 R4:U4">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",M4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:P3">
+    <cfRule type="containsText" dxfId="17" priority="46" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",N3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P2">
+    <cfRule type="containsText" dxfId="16" priority="118" operator="containsText" text="not yet started">
+      <formula>NOT(ISERROR(SEARCH("not yet started",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="117" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="containsText" dxfId="14" priority="47" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="48" operator="containsText" text="not yet started">
+      <formula>NOT(ISERROR(SEARCH("not yet started",P3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4 U4">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",P4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="not yet started">
+      <formula>NOT(ISERROR(SEARCH("not yet started",P4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:U2">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",R2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:V3">
+    <cfRule type="containsText" dxfId="9" priority="49" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",R3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="containsText" dxfId="8" priority="34" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",T10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="containsText" dxfId="7" priority="101" operator="containsText" text="not yet started">
+      <formula>NOT(ISERROR(SEARCH("not yet started",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="100" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",U3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
+    <cfRule type="containsText" dxfId="5" priority="38" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",W2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4 V12:V18 V19:Z1048576">
+    <cfRule type="containsText" dxfId="4" priority="157" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",V4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1">
-    <cfRule type="containsText" dxfId="57" priority="156" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",V1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F10 K8:K10 U8:U10 P8:P10 Z8:Z10">
-    <cfRule type="containsText" dxfId="56" priority="153" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",F8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="154" operator="containsText" text="not yet started">
-      <formula>NOT(ISERROR(SEARCH("not yet started",F8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:P1">
-    <cfRule type="containsText" dxfId="54" priority="116" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",L1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="containsText" dxfId="53" priority="117" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",P1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="118" operator="containsText" text="not yet started">
-      <formula>NOT(ISERROR(SEARCH("not yet started",P1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="containsText" dxfId="51" priority="107" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",O3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="containsText" dxfId="50" priority="103" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="containsText" dxfId="49" priority="102" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",T3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="containsText" dxfId="48" priority="100" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",U3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="101" operator="containsText" text="not yet started">
-      <formula>NOT(ISERROR(SEARCH("not yet started",U3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="containsText" dxfId="46" priority="99" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",U3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X4">
-    <cfRule type="containsText" dxfId="45" priority="98" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",X3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y4">
-    <cfRule type="containsText" dxfId="44" priority="97" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",Y3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z4">
-    <cfRule type="containsText" dxfId="43" priority="95" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",Z3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="96" operator="containsText" text="not yet started">
-      <formula>NOT(ISERROR(SEARCH("not yet started",Z3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z4">
-    <cfRule type="containsText" dxfId="41" priority="94" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",Z3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="containsText" dxfId="40" priority="92" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",N3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J2">
-    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="containsText" dxfId="38" priority="65" operator="containsText" text="complete">
+  <conditionalFormatting sqref="X2:Z4">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="containsText" dxfId="37" priority="49" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",V3)))</formula>
+  <conditionalFormatting sqref="X12:Z18">
+    <cfRule type="containsText" dxfId="2" priority="37" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",X12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="36" priority="47" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",P3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="48" operator="containsText" text="not yet started">
-      <formula>NOT(ISERROR(SEARCH("not yet started",P3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="34" priority="46" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",P3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="33" priority="44" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="not yet started">
-      <formula>NOT(ISERROR(SEARCH("not yet started",K3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="31" priority="43" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",K3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
-    <cfRule type="containsText" dxfId="29" priority="38" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",W2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
-    <cfRule type="containsText" dxfId="28" priority="37" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",Y12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12">
-    <cfRule type="containsText" dxfId="27" priority="36" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",T12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
-    <cfRule type="containsText" dxfId="26" priority="34" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",T10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",E10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4 U4">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="not yet started">
-      <formula>NOT(ISERROR(SEARCH("not yet started",P4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:P4 R4:U4">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O2 S2:T2">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",N2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2 R2">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",M2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2 U2">
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",P2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",P2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",U2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",P2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",U2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",U2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",Z2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="not yet started">
+  <conditionalFormatting sqref="Z2:Z4">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="not yet started">
       <formula>NOT(ISERROR(SEARCH("not yet started",Z2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",Z2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",Z2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",Z2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,6 +3155,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B90431BC0474204BA5DF53F8B381F09C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d23921bee26f7e8e234dce1810f7ceb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f6759040-d046-4ead-920a-51d0beeee03a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd603e977374980299e2cd712a562e99" ns2:_="">
     <xsd:import namespace="f6759040-d046-4ead-920a-51d0beeee03a"/>
@@ -3805,15 +3315,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3821,6 +3322,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A37522F-39F4-4439-AEEC-7D6E0C35C759}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01F5A318-42C9-4C39-8A11-FB54C76782C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3834,14 +3343,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A37522F-39F4-4439-AEEC-7D6E0C35C759}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
